--- a/data/trans_orig/Q23_tabaco_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>37261</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25898</v>
+        <v>26160</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49573</v>
+        <v>50281</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1120478018732147</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07787642777391858</v>
+        <v>0.07866496024682111</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1490688829793011</v>
+        <v>0.1512005059719306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -765,19 +765,19 @@
         <v>58859</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46493</v>
+        <v>45648</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72962</v>
+        <v>72999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2372429022001788</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1873990789382199</v>
+        <v>0.1839964639055159</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2940907965649638</v>
+        <v>0.2942376509035745</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>93</v>
@@ -786,19 +786,19 @@
         <v>96120</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77955</v>
+        <v>78746</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114515</v>
+        <v>114861</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1655405553337522</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1342567477751097</v>
+        <v>0.1356181478762145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1972210504127756</v>
+        <v>0.1978173528086047</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>95252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>79136</v>
+        <v>78840</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112491</v>
+        <v>111932</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2864294446195865</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2379678805124562</v>
+        <v>0.2370782254811026</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.338268855662731</v>
+        <v>0.3365890769446762</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -836,19 +836,19 @@
         <v>66434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53099</v>
+        <v>53209</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81076</v>
+        <v>81252</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2677758852992127</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2140293638400717</v>
+        <v>0.2144708373797342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.326793870952075</v>
+        <v>0.3275057633375735</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>156</v>
@@ -857,19 +857,19 @@
         <v>161685</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>140049</v>
+        <v>139954</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>183904</v>
+        <v>182311</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2784592425327612</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2411975380286188</v>
+        <v>0.2410331405687049</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3167257610807142</v>
+        <v>0.3139817523318929</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>59289</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46436</v>
+        <v>46202</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>73479</v>
+        <v>74655</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1782876826191121</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1396370376029043</v>
+        <v>0.1389322061391593</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2209576179444002</v>
+        <v>0.2244953414657961</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -907,19 +907,19 @@
         <v>41489</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29569</v>
+        <v>30036</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54228</v>
+        <v>55449</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1672323502186029</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1191866011646888</v>
+        <v>0.1210686194951867</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2185765273713352</v>
+        <v>0.223500764248539</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -928,19 +928,19 @@
         <v>100779</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>83470</v>
+        <v>84111</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>120843</v>
+        <v>118601</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1735640139692987</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1437548554145722</v>
+        <v>0.1448578862756098</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2081192487585451</v>
+        <v>0.2042589096837981</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>140746</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>124266</v>
+        <v>122606</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>159248</v>
+        <v>159647</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4232350708880868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3736778794840147</v>
+        <v>0.3686856052154983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4788707451257838</v>
+        <v>0.4800727475604447</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -978,19 +978,19 @@
         <v>81313</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67653</v>
+        <v>67929</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95079</v>
+        <v>96131</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3277488622820056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2726896121606783</v>
+        <v>0.2738029835983516</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3832386739978398</v>
+        <v>0.3874786976701178</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>221</v>
@@ -999,19 +999,19 @@
         <v>222059</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198523</v>
+        <v>199558</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>244133</v>
+        <v>243637</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3824361881641879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.341902463144234</v>
+        <v>0.343684491593983</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4204529374449203</v>
+        <v>0.4196000029513444</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>60730</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>45782</v>
+        <v>46505</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>76012</v>
+        <v>77599</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1004363751460902</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07571507838005191</v>
+        <v>0.07691124247142948</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1257102275757165</v>
+        <v>0.1283358306052117</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>59</v>
@@ -1124,19 +1124,19 @@
         <v>61335</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48564</v>
+        <v>48572</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>76223</v>
+        <v>78791</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1911689099966813</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1513646530571952</v>
+        <v>0.1513885076166903</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2375717569241083</v>
+        <v>0.2455754894912789</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>118</v>
@@ -1145,19 +1145,19 @@
         <v>122065</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>102192</v>
+        <v>103338</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>144489</v>
+        <v>144349</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1318906172663512</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1104176818843444</v>
+        <v>0.1116563440241986</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1561193100420829</v>
+        <v>0.1559684176335401</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>201187</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>179195</v>
+        <v>177782</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>225458</v>
+        <v>225476</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3327280095480578</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2963577123952919</v>
+        <v>0.2940211941377294</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3728678735361821</v>
+        <v>0.3728981227926095</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -1195,19 +1195,19 @@
         <v>132514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>115282</v>
+        <v>113516</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150942</v>
+        <v>150469</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4130163783690265</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3593089588540239</v>
+        <v>0.3538049324874265</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4704521549665052</v>
+        <v>0.4689783111343872</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>323</v>
@@ -1216,19 +1216,19 @@
         <v>333700</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>303152</v>
+        <v>306878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>363501</v>
+        <v>365111</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3605615732911423</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3275538227122653</v>
+        <v>0.3315805515344552</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3927604827948628</v>
+        <v>0.3945000460188269</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>132879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113837</v>
+        <v>114600</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>154616</v>
+        <v>154692</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2197587075295115</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.188267439590735</v>
+        <v>0.1895286277057962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2557086741041447</v>
+        <v>0.2558341770545926</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -1266,19 +1266,19 @@
         <v>60061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47149</v>
+        <v>46443</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75273</v>
+        <v>74901</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1871977819779746</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1469530733843265</v>
+        <v>0.1447518149308351</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2346092917908361</v>
+        <v>0.2334511794357061</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>191</v>
@@ -1287,19 +1287,19 @@
         <v>192940</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>169192</v>
+        <v>168804</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>220315</v>
+        <v>218029</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2084708135271633</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1828114996030815</v>
+        <v>0.1823913151616419</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2380491703423657</v>
+        <v>0.2355787874548262</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>209863</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>186703</v>
+        <v>185043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>233880</v>
+        <v>233786</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3470769077763405</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3087743875265677</v>
+        <v>0.306029593880775</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3867977557047644</v>
+        <v>0.3866409567782206</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>65</v>
@@ -1337,19 +1337,19 @@
         <v>66933</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52590</v>
+        <v>52596</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>80731</v>
+        <v>82612</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2086169296563176</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1639100499997163</v>
+        <v>0.1639311492038645</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2516221830940337</v>
+        <v>0.2574826815065575</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>275</v>
@@ -1358,19 +1358,19 @@
         <v>276796</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>251554</v>
+        <v>250463</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>306651</v>
+        <v>302489</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2990769959153432</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2718027815513347</v>
+        <v>0.2706241964611224</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3313347398841815</v>
+        <v>0.3268379085320168</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>62614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48160</v>
+        <v>48678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81216</v>
+        <v>80179</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.111300928695265</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08560824904378939</v>
+        <v>0.08652947621876843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1443681527655743</v>
+        <v>0.1425240135287506</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -1483,19 +1483,19 @@
         <v>63570</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50152</v>
+        <v>49837</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78857</v>
+        <v>79734</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2168869888805596</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1711104850917915</v>
+        <v>0.1700351932683994</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2690437157859613</v>
+        <v>0.2720351645284222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>117</v>
@@ -1504,19 +1504,19 @@
         <v>126184</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>106960</v>
+        <v>106379</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>151569</v>
+        <v>148616</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1474684778371508</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1250021969695996</v>
+        <v>0.1243230167956085</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1771356505676411</v>
+        <v>0.1736852915656348</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>175407</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>151918</v>
+        <v>155541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>199011</v>
+        <v>199734</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3117997423067462</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2700459975736975</v>
+        <v>0.2764854016464309</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3537566077628492</v>
+        <v>0.3550431397124342</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>89</v>
@@ -1554,19 +1554,19 @@
         <v>91624</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>75096</v>
+        <v>75456</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>107575</v>
+        <v>108213</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3126028460829268</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2562134676537338</v>
+        <v>0.2574420689179326</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3670263902178993</v>
+        <v>0.3692032831139677</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>261</v>
@@ -1575,19 +1575,19 @@
         <v>267032</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>242831</v>
+        <v>240230</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>294837</v>
+        <v>294500</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3120748382355087</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2837924993170473</v>
+        <v>0.2807519841984006</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3445709351235047</v>
+        <v>0.3441771667260574</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>142734</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>121810</v>
+        <v>124061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>163097</v>
+        <v>164791</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2537206944563072</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.216527159876377</v>
+        <v>0.2205280008894494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.289917800493513</v>
+        <v>0.2929292006430512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -1625,19 +1625,19 @@
         <v>57398</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43738</v>
+        <v>45734</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72506</v>
+        <v>72360</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1958306453784635</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1492253569802032</v>
+        <v>0.1560350383527586</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2473751846973984</v>
+        <v>0.246877413974037</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>200</v>
@@ -1646,19 +1646,19 @@
         <v>200132</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174471</v>
+        <v>175730</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>222318</v>
+        <v>224929</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2338909821706631</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2039008563627821</v>
+        <v>0.2053722630252089</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2598191986364966</v>
+        <v>0.2628708223426805</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>181809</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161143</v>
+        <v>159167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204877</v>
+        <v>205634</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3231786345416816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2864433884022581</v>
+        <v>0.2829312213081979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3641837265204458</v>
+        <v>0.3655307058135461</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -1696,19 +1696,19 @@
         <v>80509</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65880</v>
+        <v>65869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>95793</v>
+        <v>94764</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.27467951965805</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2247682851605902</v>
+        <v>0.2247325154619723</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3268261079925964</v>
+        <v>0.3233157733048981</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>259</v>
@@ -1717,19 +1717,19 @@
         <v>262318</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>236874</v>
+        <v>236194</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>292170</v>
+        <v>287402</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3065657017566774</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2768307755632502</v>
+        <v>0.2760356591622664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3414542042391132</v>
+        <v>0.3358816116615417</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>23391</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15049</v>
+        <v>15074</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34878</v>
+        <v>35909</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1186736048595488</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07635413803170717</v>
+        <v>0.07647921133131223</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.176954750593419</v>
+        <v>0.1821867806151326</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1842,19 +1842,19 @@
         <v>26699</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18101</v>
+        <v>18282</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36640</v>
+        <v>36247</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2328716725633705</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1578790419262786</v>
+        <v>0.1594582921370614</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3195744044575261</v>
+        <v>0.3161436906786672</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -1863,19 +1863,19 @@
         <v>50090</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38243</v>
+        <v>38098</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63706</v>
+        <v>63703</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1606717354132912</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1226704155791342</v>
+        <v>0.1222046458068367</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.204346939005997</v>
+        <v>0.2043382678316413</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>72423</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59613</v>
+        <v>59048</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>85823</v>
+        <v>86726</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3674408970924044</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3024468466622602</v>
+        <v>0.2995809462395</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4354242527975041</v>
+        <v>0.4400080894595007</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -1913,19 +1913,19 @@
         <v>41255</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31352</v>
+        <v>31704</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52717</v>
+        <v>51429</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3598291138899701</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2734523495269242</v>
+        <v>0.2765224090029856</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4598040181391642</v>
+        <v>0.4485630097626984</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>112</v>
@@ -1934,19 +1934,19 @@
         <v>113678</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95532</v>
+        <v>98124</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>130806</v>
+        <v>130757</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3646415444316244</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3064345822733689</v>
+        <v>0.3147485297609144</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4195828615934122</v>
+        <v>0.4194256998085393</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>32176</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23690</v>
+        <v>23039</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>45109</v>
+        <v>43980</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1632457462427119</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1201919715854571</v>
+        <v>0.11688753747035</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2288641660979391</v>
+        <v>0.2231345355354957</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -1984,19 +1984,19 @@
         <v>18362</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11120</v>
+        <v>11126</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27245</v>
+        <v>26470</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1601580178061294</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09698540917846771</v>
+        <v>0.09704395109392668</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2376351984461041</v>
+        <v>0.2308753760692067</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>50</v>
@@ -2005,19 +2005,19 @@
         <v>50538</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38794</v>
+        <v>38574</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66608</v>
+        <v>64880</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1621101856802476</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.124438272604587</v>
+        <v>0.123731848532893</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2136571243603787</v>
+        <v>0.2081150579266769</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>69111</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56042</v>
+        <v>56386</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83125</v>
+        <v>84025</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3506397518053349</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2843330919114673</v>
+        <v>0.2860745813286948</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4217392203522228</v>
+        <v>0.4263061733768337</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -2055,19 +2055,19 @@
         <v>28335</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19571</v>
+        <v>19441</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38310</v>
+        <v>37624</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.24714119574053</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1707002481927336</v>
+        <v>0.1695629966663865</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3341390107341511</v>
+        <v>0.3281546199966465</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -2076,19 +2076,19 @@
         <v>97447</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>79955</v>
+        <v>82006</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>113753</v>
+        <v>116142</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3125765344748368</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2564677720880345</v>
+        <v>0.2630463879339329</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3648816189992719</v>
+        <v>0.3725442472331399</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>183996</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>158313</v>
+        <v>160240</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>210402</v>
+        <v>212478</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1084322339553474</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09329669398948255</v>
+        <v>0.09443270965290575</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1239940459728959</v>
+        <v>0.125217446111816</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>201</v>
@@ -2201,19 +2201,19 @@
         <v>210463</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>184485</v>
+        <v>185280</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>237751</v>
+        <v>235274</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2154856990659146</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1888884709738975</v>
+        <v>0.1897014896635688</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2434256706273991</v>
+        <v>0.2408888121989507</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>376</v>
@@ -2222,19 +2222,19 @@
         <v>394458</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>353635</v>
+        <v>361534</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>431883</v>
+        <v>440687</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1475403778745865</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1322710159641392</v>
+        <v>0.135225477815139</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1615382641065909</v>
+        <v>0.1648314612010037</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>544269</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>508356</v>
+        <v>508087</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>587239</v>
+        <v>586610</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3207482864299955</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.299584419506033</v>
+        <v>0.2994256311344072</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3460716565649688</v>
+        <v>0.345700939771825</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>322</v>
@@ -2272,19 +2272,19 @@
         <v>331826</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>301641</v>
+        <v>303992</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>362997</v>
+        <v>360525</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3397458933164921</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3088402681945306</v>
+        <v>0.3112471465047478</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3716603435841538</v>
+        <v>0.369129631472717</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>852</v>
@@ -2293,19 +2293,19 @@
         <v>876095</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>825707</v>
+        <v>828743</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>924275</v>
+        <v>925695</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3276883807414771</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3088414089073875</v>
+        <v>0.3099769428064736</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3457093451492407</v>
+        <v>0.3462401997928618</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>367078</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>332289</v>
+        <v>332638</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>399087</v>
+        <v>401835</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2163264656148555</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1958243330092181</v>
+        <v>0.1960300561827487</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2351898716159245</v>
+        <v>0.2368091329450323</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>173</v>
@@ -2343,19 +2343,19 @@
         <v>177311</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>154001</v>
+        <v>155672</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>203457</v>
+        <v>202613</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1815427875684522</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1576759302610279</v>
+        <v>0.1593875414052359</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.208312709061098</v>
+        <v>0.2074486204565534</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>539</v>
@@ -2364,19 +2364,19 @@
         <v>544389</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>503880</v>
+        <v>501507</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>586294</v>
+        <v>583375</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2036194963852818</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1884674970706718</v>
+        <v>0.1875801437334982</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2192931933528576</v>
+        <v>0.2182015084645713</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>601529</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>559388</v>
+        <v>563560</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>641820</v>
+        <v>640670</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3544930139998015</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3296583240525753</v>
+        <v>0.3321171201840399</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3782370385845679</v>
+        <v>0.3775595414462113</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>256</v>
@@ -2414,19 +2414,19 @@
         <v>257090</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>231547</v>
+        <v>229820</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>285775</v>
+        <v>284006</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2632256200491411</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2370727317928596</v>
+        <v>0.2353045649478349</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2925951208800529</v>
+        <v>0.2907841012383988</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>849</v>
@@ -2435,19 +2435,19 @@
         <v>858619</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>814382</v>
+        <v>807408</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>907704</v>
+        <v>906392</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3211517449986546</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3046055513803845</v>
+        <v>0.3019969483192615</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3395109995529604</v>
+        <v>0.3390204771929939</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>122834</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>102031</v>
+        <v>102774</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>146675</v>
+        <v>144399</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1836926691468381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1525827824934187</v>
+        <v>0.1536932552059331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2193457007754457</v>
+        <v>0.215941405116325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -2800,19 +2800,19 @@
         <v>109973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89016</v>
+        <v>90243</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128309</v>
+        <v>128160</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2411901389837042</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1952266027028912</v>
+        <v>0.1979191833330251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2814038257433196</v>
+        <v>0.281077793980493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>208</v>
@@ -2821,19 +2821,19 @@
         <v>232808</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>207772</v>
+        <v>203274</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>263833</v>
+        <v>261918</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2070034112490987</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1847426667795878</v>
+        <v>0.1807434705577644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2345902020609152</v>
+        <v>0.232887173423707</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>167028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>143240</v>
+        <v>144392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189801</v>
+        <v>191063</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2497825636002011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2142088913897858</v>
+        <v>0.2159308221749238</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.283837838526913</v>
+        <v>0.2857249731470331</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>124</v>
@@ -2871,19 +2871,19 @@
         <v>135987</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>116320</v>
+        <v>115710</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>156546</v>
+        <v>156165</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2982428234572196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2551108240573523</v>
+        <v>0.2537713820398086</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3433336581752822</v>
+        <v>0.3424980656962369</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>281</v>
@@ -2892,19 +2892,19 @@
         <v>303015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>273752</v>
+        <v>271304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>335647</v>
+        <v>333942</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2694294215043934</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2434093898386984</v>
+        <v>0.2412332531291032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2984444615705816</v>
+        <v>0.2969280156929447</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>119501</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>101491</v>
+        <v>100623</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>141306</v>
+        <v>141124</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1787074107698026</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.151774599227705</v>
+        <v>0.1504762567043259</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2113162530985132</v>
+        <v>0.2110444296681723</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>57</v>
@@ -2942,19 +2942,19 @@
         <v>60600</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46173</v>
+        <v>46639</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76768</v>
+        <v>77885</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1329066568137328</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1012651354756291</v>
+        <v>0.1022871838194893</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1683657052144972</v>
+        <v>0.1708146228182919</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>171</v>
@@ -2963,19 +2963,19 @@
         <v>180101</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>159132</v>
+        <v>157547</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>206401</v>
+        <v>205361</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1601387752004774</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.14149424082332</v>
+        <v>0.1400849102219988</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1835239843501552</v>
+        <v>0.1825992760008022</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>259332</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>231894</v>
+        <v>231277</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>285538</v>
+        <v>286149</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3878173564831583</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3467856802425557</v>
+        <v>0.3458632752350193</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4270079954565229</v>
+        <v>0.4279208111764763</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>134</v>
@@ -3013,19 +3013,19 @@
         <v>149400</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130007</v>
+        <v>129167</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170217</v>
+        <v>169818</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3276603807453434</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2851285748158491</v>
+        <v>0.2832853997070487</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3733146257887006</v>
+        <v>0.3724396215661984</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>376</v>
@@ -3034,19 +3034,19 @@
         <v>408732</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>373718</v>
+        <v>375296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>440880</v>
+        <v>443512</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3634283920460306</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3322952964707489</v>
+        <v>0.3336985132950122</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.392013201881216</v>
+        <v>0.3943536514042642</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>86059</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68155</v>
+        <v>68767</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>105187</v>
+        <v>106109</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1399145800911261</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1108052221395596</v>
+        <v>0.1118004818744196</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1710127454898971</v>
+        <v>0.1725120469139934</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>74</v>
@@ -3159,19 +3159,19 @@
         <v>82285</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>67632</v>
+        <v>66945</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>100475</v>
+        <v>102016</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.201778968007873</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1658449775262044</v>
+        <v>0.164160970856216</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2463818525477948</v>
+        <v>0.25016097957691</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>152</v>
@@ -3180,19 +3180,19 @@
         <v>168345</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>145181</v>
+        <v>144558</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>197408</v>
+        <v>193266</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1645784668747546</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1419334980407916</v>
+        <v>0.1413242875398503</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1929918100849712</v>
+        <v>0.1889422641158293</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>199672</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>177071</v>
+        <v>175034</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>224506</v>
+        <v>223214</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.324625104086971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2878808336036719</v>
+        <v>0.2845695607275313</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3650000631501084</v>
+        <v>0.3629000159182981</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>123</v>
@@ -3230,19 +3230,19 @@
         <v>130194</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110512</v>
+        <v>111155</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>149459</v>
+        <v>149428</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3192593712703071</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2709950315274933</v>
+        <v>0.2725730695765092</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3664996179682251</v>
+        <v>0.3664238009820017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>312</v>
@@ -3251,19 +3251,19 @@
         <v>329865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>299805</v>
+        <v>299114</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>360788</v>
+        <v>359362</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3224859117154326</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2930983343220819</v>
+        <v>0.2924224163535529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3527169087378432</v>
+        <v>0.3513225027575612</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>104537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>86418</v>
+        <v>85920</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>125653</v>
+        <v>123826</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1699552178020208</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1404971178745486</v>
+        <v>0.1396888545399224</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2042857645823462</v>
+        <v>0.2013153522777796</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>77</v>
@@ -3301,19 +3301,19 @@
         <v>84690</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69003</v>
+        <v>68764</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>103901</v>
+        <v>102189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2076764524982902</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1692070231154743</v>
+        <v>0.1686208037575639</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2547849687111525</v>
+        <v>0.2505854173380733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>178</v>
@@ -3322,19 +3322,19 @@
         <v>189227</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>166932</v>
+        <v>161649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>218004</v>
+        <v>214594</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1849937931959853</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1631972662292721</v>
+        <v>0.1580323050814053</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2131272841367507</v>
+        <v>0.2097935790613796</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>224816</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>200943</v>
+        <v>201413</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>250381</v>
+        <v>250265</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3655050980198821</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3266927469191751</v>
+        <v>0.3274558584350387</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4070683205959086</v>
+        <v>0.4068791385653804</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>100</v>
@@ -3372,19 +3372,19 @@
         <v>110630</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>92003</v>
+        <v>93117</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>130923</v>
+        <v>130352</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2712852082235298</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2256090716596438</v>
+        <v>0.2283386987546337</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3210466460851635</v>
+        <v>0.3196467699498292</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>314</v>
@@ -3393,19 +3393,19 @@
         <v>335446</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>305112</v>
+        <v>303672</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>366550</v>
+        <v>368053</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3279418282138276</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2982859708591778</v>
+        <v>0.2968782667156492</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3583502633146865</v>
+        <v>0.3598195784438692</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>80067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62607</v>
+        <v>64224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99106</v>
+        <v>100384</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1598258310062668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1249732736212847</v>
+        <v>0.1282008733453643</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1978296810577102</v>
+        <v>0.2003808529217283</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -3518,19 +3518,19 @@
         <v>70842</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55824</v>
+        <v>57470</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86891</v>
+        <v>87805</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2341117419447765</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1844820899263725</v>
+        <v>0.1899222040516087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2871519682231549</v>
+        <v>0.2901718601175487</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>132</v>
@@ -3539,19 +3539,19 @@
         <v>150909</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>128746</v>
+        <v>127598</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>173447</v>
+        <v>176544</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1877996075790344</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1602196619576021</v>
+        <v>0.1587909794524401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2158473322269473</v>
+        <v>0.2197013524498762</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>160984</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>140604</v>
+        <v>140303</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>181842</v>
+        <v>182916</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3213479896777739</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.280665433751617</v>
+        <v>0.2800658658196781</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3629838308857</v>
+        <v>0.3651270443784878</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>95</v>
@@ -3589,19 +3589,19 @@
         <v>100319</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>84407</v>
+        <v>84636</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>115851</v>
+        <v>117049</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3315278128585989</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2789427741301865</v>
+        <v>0.2796989805747351</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3828564715605342</v>
+        <v>0.3868153895634382</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>247</v>
@@ -3610,19 +3610,19 @@
         <v>261303</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>233815</v>
+        <v>233049</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>288336</v>
+        <v>287102</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3251813962499354</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.29097349605164</v>
+        <v>0.2900203336871216</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3588226554006878</v>
+        <v>0.357286086712479</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>96262</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78701</v>
+        <v>80487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115534</v>
+        <v>117377</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1921525433315913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1570980855435961</v>
+        <v>0.1606634011713291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.230623651664916</v>
+        <v>0.2343026931766597</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -3660,19 +3660,19 @@
         <v>57118</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44033</v>
+        <v>44433</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72904</v>
+        <v>72573</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1887600717288773</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1455183247259983</v>
+        <v>0.146838647993905</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2409287382714989</v>
+        <v>0.2398327807284268</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>144</v>
@@ -3681,19 +3681,19 @@
         <v>153380</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>131458</v>
+        <v>131951</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178968</v>
+        <v>177471</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1908750434470932</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1635942089687374</v>
+        <v>0.1642080573963071</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2227185273766135</v>
+        <v>0.2208556909850455</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>163652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144078</v>
+        <v>142510</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186845</v>
+        <v>187215</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3266736359843679</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2876019062720415</v>
+        <v>0.2844710729472927</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.372970138705962</v>
+        <v>0.3737091902389724</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>70</v>
@@ -3731,19 +3731,19 @@
         <v>74318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60863</v>
+        <v>60152</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92060</v>
+        <v>90986</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2456003734677472</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2011364087848469</v>
+        <v>0.1987856332780344</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3042324424830062</v>
+        <v>0.3006838431793825</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>227</v>
@@ -3752,19 +3752,19 @@
         <v>237970</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>211877</v>
+        <v>209721</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>263258</v>
+        <v>263335</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.296143952723937</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2636718153280876</v>
+        <v>0.2609893950615507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3276134182787358</v>
+        <v>0.3277097075377576</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>45697</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34120</v>
+        <v>33398</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59823</v>
+        <v>60380</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1909569493054091</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1425779215084025</v>
+        <v>0.1395617740614321</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2499833281346319</v>
+        <v>0.2523128845908344</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -3877,19 +3877,19 @@
         <v>41297</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30109</v>
+        <v>30700</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53645</v>
+        <v>53675</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2807992565321735</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2047271855934076</v>
+        <v>0.2087407809064534</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3647547326738775</v>
+        <v>0.3649575782430552</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -3898,19 +3898,19 @@
         <v>86995</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71314</v>
+        <v>69155</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105913</v>
+        <v>104650</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2251545105200518</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1845713933711046</v>
+        <v>0.1789822323660683</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2741179631990254</v>
+        <v>0.2708479082553947</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>65359</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>51945</v>
+        <v>52654</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80265</v>
+        <v>81086</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2731181194308311</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2170623763742065</v>
+        <v>0.2200257128576534</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.335405285721708</v>
+        <v>0.3388356199618758</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -3948,19 +3948,19 @@
         <v>48257</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37604</v>
+        <v>37354</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61134</v>
+        <v>61032</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3281223743176523</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2556837164156435</v>
+        <v>0.2539866765894259</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4156747485618733</v>
+        <v>0.4149803073230693</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>108</v>
@@ -3969,19 +3969,19 @@
         <v>113616</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>94164</v>
+        <v>95799</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>131133</v>
+        <v>133873</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2940549300673852</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.243709356610901</v>
+        <v>0.2479410784827717</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3393907947655682</v>
+        <v>0.346482175532617</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>49973</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37150</v>
+        <v>37956</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>64070</v>
+        <v>64134</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2088245186041876</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1552397965486096</v>
+        <v>0.1586088216600026</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2677313775545699</v>
+        <v>0.2679971106447783</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -4019,19 +4019,19 @@
         <v>30285</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20277</v>
+        <v>20822</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>41947</v>
+        <v>41688</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2059225478473516</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1378719861989864</v>
+        <v>0.1415765866374006</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2852132096902255</v>
+        <v>0.2834580462963762</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>71</v>
@@ -4040,19 +4040,19 @@
         <v>80258</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>65618</v>
+        <v>64199</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>98512</v>
+        <v>99249</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2077199129271594</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.169827360273065</v>
+        <v>0.1661557090186024</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2549627362425382</v>
+        <v>0.2568714990291612</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>78277</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63904</v>
+        <v>63578</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93791</v>
+        <v>94285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3271004126595722</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.267036867230573</v>
+        <v>0.2656738286414079</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3919287240322293</v>
+        <v>0.3939923190395113</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -4090,19 +4090,19 @@
         <v>27231</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18137</v>
+        <v>18053</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37982</v>
+        <v>38447</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1851558213028225</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1233202717966231</v>
+        <v>0.1227471329451525</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2582595366894176</v>
+        <v>0.2614164188849582</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -4111,19 +4111,19 @@
         <v>105508</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86968</v>
+        <v>87298</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>125797</v>
+        <v>125019</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2730706464854036</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.225084708816083</v>
+        <v>0.2259391326010601</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3255799571114945</v>
+        <v>0.3235666126970538</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>334658</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>301158</v>
+        <v>301030</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>371135</v>
+        <v>373723</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1653407423016281</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1487898091588729</v>
+        <v>0.1487264046551428</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.18336260965166</v>
+        <v>0.1846410281964011</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>276</v>
@@ -4236,19 +4236,19 @@
         <v>304397</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>275900</v>
+        <v>272942</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>335050</v>
+        <v>337246</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2317580153855981</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2100607486768515</v>
+        <v>0.2078090803909923</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2550957022257883</v>
+        <v>0.2567680448900431</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>569</v>
@@ -4257,19 +4257,19 @@
         <v>639056</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>594059</v>
+        <v>588700</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>691525</v>
+        <v>689915</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1914785137726837</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1779962172545237</v>
+        <v>0.1763905401684292</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2071998248041763</v>
+        <v>0.2067174641534262</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>593043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>550308</v>
+        <v>550850</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>639392</v>
+        <v>635215</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2929981540243431</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2718843365713011</v>
+        <v>0.2721523437091116</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3158968048875445</v>
+        <v>0.3138334987273145</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>386</v>
@@ -4307,19 +4307,19 @@
         <v>414757</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>378600</v>
+        <v>380120</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>448144</v>
+        <v>449789</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3157823391266955</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2882530486654956</v>
+        <v>0.2894107430508737</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3412020910738086</v>
+        <v>0.3424541808145752</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>948</v>
@@ -4328,19 +4328,19 @@
         <v>1007801</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>952352</v>
+        <v>955373</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1060534</v>
+        <v>1059836</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3019646140385416</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2853506793180435</v>
+        <v>0.2862559326949023</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3177649917889634</v>
+        <v>0.3175557473544032</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>370273</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>336446</v>
+        <v>333154</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>411206</v>
+        <v>405072</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1829362852133954</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1662242369171452</v>
+        <v>0.1645975962448946</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2031595945378517</v>
+        <v>0.2001294625530369</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>215</v>
@@ -4378,19 +4378,19 @@
         <v>232694</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>207512</v>
+        <v>204246</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>261527</v>
+        <v>262395</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1771654199002533</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1579928441639155</v>
+        <v>0.1555056787824726</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1991182120657134</v>
+        <v>0.1997789155986414</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>564</v>
@@ -4399,19 +4399,19 @@
         <v>602966</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>560430</v>
+        <v>557378</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>650807</v>
+        <v>645928</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1806652260183808</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1679201154401899</v>
+        <v>0.1670056472278723</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1949995020870137</v>
+        <v>0.1935376225749215</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>726078</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>685232</v>
+        <v>678732</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>772865</v>
+        <v>766362</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3587248184606333</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3385444768703238</v>
+        <v>0.3353333214326587</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3818402833840117</v>
+        <v>0.3786276547665013</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>329</v>
@@ -4449,19 +4449,19 @@
         <v>361579</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>329136</v>
+        <v>328776</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>397011</v>
+        <v>396972</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2752942255874531</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2505928286349803</v>
+        <v>0.2503186769741633</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3022704943233249</v>
+        <v>0.3022414857069772</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1011</v>
@@ -4470,19 +4470,19 @@
         <v>1087657</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1036161</v>
+        <v>1034306</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1149386</v>
+        <v>1145142</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.325891646170394</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3104622729454499</v>
+        <v>0.3099063994327367</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3443875053891494</v>
+        <v>0.3431158207528747</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>79075</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63038</v>
+        <v>62454</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97560</v>
+        <v>96015</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1167040179881424</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09303583299406024</v>
+        <v>0.09217352754054324</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1439857481146085</v>
+        <v>0.1417050677848169</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -4835,19 +4835,19 @@
         <v>109426</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>92778</v>
+        <v>91319</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126722</v>
+        <v>127719</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2276956443026517</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.193055914542567</v>
+        <v>0.1900197329129411</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2636871476497129</v>
+        <v>0.2657619202800823</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>172</v>
@@ -4856,19 +4856,19 @@
         <v>188501</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>163916</v>
+        <v>161638</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>217952</v>
+        <v>214620</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1627604745310939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1415327673900464</v>
+        <v>0.1395657821678938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1881898727930131</v>
+        <v>0.1853134933083813</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>163739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141848</v>
+        <v>141876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>188659</v>
+        <v>188044</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2416564707542973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2093491580891902</v>
+        <v>0.2093902870528216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2784345105207404</v>
+        <v>0.2775270527467313</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>137</v>
@@ -4906,19 +4906,19 @@
         <v>143384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>122512</v>
+        <v>123136</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>163882</v>
+        <v>165295</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2983572299769062</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2549261631064734</v>
+        <v>0.2562256231558256</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3410103754892865</v>
+        <v>0.3439496766176605</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>286</v>
@@ -4927,19 +4927,19 @@
         <v>307123</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>277789</v>
+        <v>278583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>340024</v>
+        <v>336757</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2651846966196306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2398567104349174</v>
+        <v>0.240542055312811</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2935935336514119</v>
+        <v>0.2907721149259722</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>149322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>128588</v>
+        <v>127619</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>172263</v>
+        <v>171280</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2203786068450911</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1897788940599742</v>
+        <v>0.1883490756066698</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2542373563194719</v>
+        <v>0.2527862225906921</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>82</v>
@@ -4977,19 +4977,19 @@
         <v>83378</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>67016</v>
+        <v>68762</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>100880</v>
+        <v>102689</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1734959158575248</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1394479006326765</v>
+        <v>0.1430821013542329</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.209914935498626</v>
+        <v>0.2136791314510786</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>225</v>
@@ -4998,19 +4998,19 @@
         <v>232700</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>205050</v>
+        <v>207354</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>261428</v>
+        <v>262496</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2009244309600837</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1770499508595748</v>
+        <v>0.1790392349214839</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2257294038704267</v>
+        <v>0.2266518673391603</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>285433</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>256623</v>
+        <v>259400</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>312825</v>
+        <v>311842</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4212609044124693</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3787402392220051</v>
+        <v>0.3828387412005007</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4616872620848674</v>
+        <v>0.4602358070698196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -5048,19 +5048,19 @@
         <v>144390</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125993</v>
+        <v>124165</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>167236</v>
+        <v>164975</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3004512098629173</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2621699561845747</v>
+        <v>0.2583657239113264</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3479900583792334</v>
+        <v>0.3432839823839351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>413</v>
@@ -5069,19 +5069,19 @@
         <v>429824</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>396376</v>
+        <v>399917</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>464802</v>
+        <v>463568</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3711303978891918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3422497375788375</v>
+        <v>0.3453075747052037</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4013323726625089</v>
+        <v>0.4002670025282568</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>79356</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>64259</v>
+        <v>63677</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>98420</v>
+        <v>97088</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1683944754572184</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1363573698679273</v>
+        <v>0.1351230436962867</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2088479103569392</v>
+        <v>0.2060211725049569</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -5194,19 +5194,19 @@
         <v>84902</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>69645</v>
+        <v>68065</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>102326</v>
+        <v>101954</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2425273114942061</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1989439708843963</v>
+        <v>0.1944318524491193</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2922992497853603</v>
+        <v>0.2912366752423866</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>156</v>
@@ -5215,19 +5215,19 @@
         <v>164258</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>139452</v>
+        <v>142475</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>187899</v>
+        <v>189065</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1999920748762571</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.169789328628556</v>
+        <v>0.1734707966258527</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2287759589834693</v>
+        <v>0.2301956588711042</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>124324</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104277</v>
+        <v>105802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144594</v>
+        <v>144173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2638172751870783</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2212778361130292</v>
+        <v>0.224513633032503</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3068292516098259</v>
+        <v>0.3059374339432046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -5265,19 +5265,19 @@
         <v>109591</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93590</v>
+        <v>92419</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129848</v>
+        <v>129164</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3130538640551639</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2673441969688732</v>
+        <v>0.2639989646995056</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3709179364619359</v>
+        <v>0.3689648185116352</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -5286,19 +5286,19 @@
         <v>233915</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>207614</v>
+        <v>208741</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>260581</v>
+        <v>261581</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2848033603685146</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2527802283699417</v>
+        <v>0.2541523868500183</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3172696194013872</v>
+        <v>0.3184878438220902</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>112475</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93600</v>
+        <v>95145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132149</v>
+        <v>131805</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2386734106679212</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1986211452516116</v>
+        <v>0.2018997228580334</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2804212583617716</v>
+        <v>0.2796919627991126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -5336,19 +5336,19 @@
         <v>72433</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59165</v>
+        <v>59070</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90003</v>
+        <v>88799</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2069084389870327</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1690070409827387</v>
+        <v>0.1687378639931815</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2570979034803552</v>
+        <v>0.253659701528823</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>180</v>
@@ -5357,19 +5357,19 @@
         <v>184908</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>161473</v>
+        <v>160964</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>210029</v>
+        <v>206970</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2251342436214987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.196601005511011</v>
+        <v>0.1959816027200171</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2557205673098911</v>
+        <v>0.2519958727408791</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>155096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>135212</v>
+        <v>135382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>177561</v>
+        <v>176341</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3291148386877821</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2869221524642975</v>
+        <v>0.287282636936274</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3767866278116225</v>
+        <v>0.3741975600777478</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>82</v>
@@ -5407,19 +5407,19 @@
         <v>83146</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>66940</v>
+        <v>67363</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>99042</v>
+        <v>99252</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2375103854635972</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1912167893269152</v>
+        <v>0.1924262034749008</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2829195560585959</v>
+        <v>0.2835185566790475</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>233</v>
@@ -5428,19 +5428,19 @@
         <v>238241</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>213793</v>
+        <v>214176</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>267406</v>
+        <v>265354</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2900703211337295</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2603034485202904</v>
+        <v>0.2607696625100774</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.325580537818453</v>
+        <v>0.3230810071634869</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>79410</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63271</v>
+        <v>64715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96364</v>
+        <v>95236</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2076057618091829</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1654109363041534</v>
+        <v>0.1691877766141993</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2519287783972702</v>
+        <v>0.2489781773528064</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>56</v>
@@ -5553,19 +5553,19 @@
         <v>60800</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46032</v>
+        <v>46710</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74827</v>
+        <v>73835</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2476478251749624</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.187496103062321</v>
+        <v>0.1902574766926296</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3047808053720794</v>
+        <v>0.3007398254572473</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>132</v>
@@ -5574,19 +5574,19 @@
         <v>140210</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>118289</v>
+        <v>119663</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>161489</v>
+        <v>161685</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2232593919504845</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1883526922535558</v>
+        <v>0.1905413697665561</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.257141162601244</v>
+        <v>0.2574538423197149</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>122741</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>106084</v>
+        <v>103691</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>141898</v>
+        <v>141661</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3208855714989118</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2773386671447388</v>
+        <v>0.2710829881622847</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3709686181527049</v>
+        <v>0.3703494410683578</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>81</v>
@@ -5624,19 +5624,19 @@
         <v>81265</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>67996</v>
+        <v>67130</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>95574</v>
+        <v>97567</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3310037730932447</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2769591657686533</v>
+        <v>0.2734304796322889</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.389287506596714</v>
+        <v>0.3974063657493492</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>197</v>
@@ -5645,19 +5645,19 @@
         <v>204005</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>181453</v>
+        <v>179100</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>227484</v>
+        <v>227837</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3248410765887962</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2889306323514828</v>
+        <v>0.2851842395058317</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3622267501678138</v>
+        <v>0.3627887582512515</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>62540</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48111</v>
+        <v>48321</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77353</v>
+        <v>78868</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1635002136505136</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1257783072855253</v>
+        <v>0.1263269576127301</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2022280505845879</v>
+        <v>0.2061877035134046</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -5695,19 +5695,19 @@
         <v>48265</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36502</v>
+        <v>36292</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61978</v>
+        <v>61726</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1965888823665664</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1486787887421597</v>
+        <v>0.147824132837565</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2524460576892272</v>
+        <v>0.2514193285245828</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -5716,19 +5716,19 @@
         <v>110804</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91398</v>
+        <v>93351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130688</v>
+        <v>131975</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.176435555598746</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.145534975825286</v>
+        <v>0.1486447936472086</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2080958951865141</v>
+        <v>0.2101466303223939</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>117815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99794</v>
+        <v>99181</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>138100</v>
+        <v>137999</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3080084530413917</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2608956778083256</v>
+        <v>0.2592929618454433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3610402921933956</v>
+        <v>0.3607766154997006</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -5766,19 +5766,19 @@
         <v>55181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43317</v>
+        <v>43009</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70901</v>
+        <v>68753</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2247595193652265</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1764381325433153</v>
+        <v>0.175181276529742</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2887926684235195</v>
+        <v>0.2800430323740217</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -5787,19 +5787,19 @@
         <v>172996</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>151622</v>
+        <v>147675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>195529</v>
+        <v>195210</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2754639758619734</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2414299322163928</v>
+        <v>0.2351447621004643</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3113445546453432</v>
+        <v>0.3108362700525822</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>48480</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37225</v>
+        <v>35221</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61194</v>
+        <v>61150</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2172917053630854</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1668472132803072</v>
+        <v>0.1578670008307518</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2742775799361781</v>
+        <v>0.2740847312416675</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -5912,19 +5912,19 @@
         <v>43715</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32588</v>
+        <v>31893</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55312</v>
+        <v>55819</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2741126482981692</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2043436838308154</v>
+        <v>0.1999830304646038</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3468339661907556</v>
+        <v>0.3500101045121908</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -5933,19 +5933,19 @@
         <v>92194</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76373</v>
+        <v>74557</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109818</v>
+        <v>109634</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2409770076838899</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1996245615321084</v>
+        <v>0.1948763004255051</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2870428720031748</v>
+        <v>0.2865620911278378</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>58607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45872</v>
+        <v>46580</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72529</v>
+        <v>72823</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2626858392253554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2056034290259214</v>
+        <v>0.2087791677687995</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3250860391144543</v>
+        <v>0.3264024384054577</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -5983,19 +5983,19 @@
         <v>45958</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34713</v>
+        <v>34609</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57892</v>
+        <v>58039</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2881774827389605</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2176659242425995</v>
+        <v>0.2170169611583996</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3630111902720701</v>
+        <v>0.36393130411852</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -6004,19 +6004,19 @@
         <v>104565</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>87864</v>
+        <v>88819</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>123615</v>
+        <v>122861</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2733118030352786</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2296596325414226</v>
+        <v>0.2321546856234795</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3231056632162295</v>
+        <v>0.3211332677489069</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>42083</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31474</v>
+        <v>31342</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54946</v>
+        <v>56428</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1886197906918328</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1410715554819244</v>
+        <v>0.1404799619641995</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2462761149072759</v>
+        <v>0.2529164096028356</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>30</v>
@@ -6054,19 +6054,19 @@
         <v>31991</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>22879</v>
+        <v>22021</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>43969</v>
+        <v>43481</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2005988385610958</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1434622801016139</v>
+        <v>0.138084131822712</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2757083351016008</v>
+        <v>0.2726451882276855</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>69</v>
@@ -6075,19 +6075,19 @@
         <v>74073</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>57044</v>
+        <v>58084</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>90367</v>
+        <v>90090</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1936131497535265</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1491014640123085</v>
+        <v>0.151820163114259</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2362008415172489</v>
+        <v>0.2354766646036783</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>73939</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60194</v>
+        <v>60206</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88424</v>
+        <v>89864</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3314026647197263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2697984954326713</v>
+        <v>0.2698530516492569</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3963297567729808</v>
+        <v>0.4027822359613301</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -6125,19 +6125,19 @@
         <v>37814</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27548</v>
+        <v>27697</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50257</v>
+        <v>49343</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2371110304017744</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1727403323555665</v>
+        <v>0.173673591545044</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3151376855406117</v>
+        <v>0.3094058180731088</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -6146,19 +6146,19 @@
         <v>111752</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>94130</v>
+        <v>94939</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>130660</v>
+        <v>131720</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.292098039527305</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2460373502173319</v>
+        <v>0.2481526759798369</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3415183293637234</v>
+        <v>0.3442889482391482</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>286321</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>255511</v>
+        <v>256578</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>319353</v>
+        <v>321875</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1631985455097831</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1456372123989616</v>
+        <v>0.1462455041243395</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1820265924296207</v>
+        <v>0.1834639912487257</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>277</v>
@@ -6271,19 +6271,19 @@
         <v>298842</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>270356</v>
+        <v>269194</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>334285</v>
+        <v>333270</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2418527698607772</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2187992400287812</v>
+        <v>0.2178581065474322</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2705366895024146</v>
+        <v>0.2697153902723176</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>546</v>
@@ -6292,19 +6292,19 @@
         <v>585163</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>538464</v>
+        <v>541735</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>631676</v>
+        <v>627497</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1957021553286084</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1800838815384539</v>
+        <v>0.1811781184167533</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.211257910039979</v>
+        <v>0.2098602580574153</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>469411</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>431117</v>
+        <v>432311</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>507861</v>
+        <v>508181</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2675569802518477</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2457301413831219</v>
+        <v>0.246410423060929</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2894729425168807</v>
+        <v>0.2896553566748842</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>366</v>
@@ -6342,19 +6342,19 @@
         <v>380198</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>346635</v>
+        <v>346656</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>413341</v>
+        <v>413095</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3076937035955881</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.280531437971796</v>
+        <v>0.2805485892704882</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3345168897768344</v>
+        <v>0.3343175142488549</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>805</v>
@@ -6363,19 +6363,19 @@
         <v>849609</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>802870</v>
+        <v>800199</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>902139</v>
+        <v>901415</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2841433544197418</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2685121289682288</v>
+        <v>0.267618573725413</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.301711527036326</v>
+        <v>0.3014695263505421</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>366419</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>330568</v>
+        <v>331332</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>401204</v>
+        <v>403895</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2088532125210832</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1884188493171396</v>
+        <v>0.1888539439975351</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2286798952284246</v>
+        <v>0.2302138606501536</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>232</v>
@@ -6413,19 +6413,19 @@
         <v>236067</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>209186</v>
+        <v>210367</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>263835</v>
+        <v>263875</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1910485124901146</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1692942893175855</v>
+        <v>0.1702495035036608</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2135218259526933</v>
+        <v>0.2135541804600229</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>581</v>
@@ -6434,19 +6434,19 @@
         <v>602486</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>559879</v>
+        <v>559507</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>642815</v>
+        <v>646978</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2014954764614749</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.187246150194394</v>
+        <v>0.1871217633092942</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2149832730979244</v>
+        <v>0.216375545210538</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>632282</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>588437</v>
+        <v>592678</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>671237</v>
+        <v>674525</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3603912617172861</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3353998867712238</v>
+        <v>0.3378173475987331</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3825949700729526</v>
+        <v>0.3844691229327555</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>313</v>
@@ -6484,19 +6484,19 @@
         <v>320530</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>288776</v>
+        <v>291586</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>352017</v>
+        <v>351753</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2594050140535202</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2337064869177362</v>
+        <v>0.2359805194388233</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2848868616403797</v>
+        <v>0.2846736019034355</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>910</v>
@@ -6505,19 +6505,19 @@
         <v>952813</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>905230</v>
+        <v>903356</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1005084</v>
+        <v>1012472</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3186590137901749</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3027452152192919</v>
+        <v>0.3021184641472105</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3361405620327012</v>
+        <v>0.3386111907540548</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>26167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17563</v>
+        <v>17721</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36180</v>
+        <v>37507</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09551572316031091</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06410868799758278</v>
+        <v>0.06468552794922693</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.132069058201335</v>
+        <v>0.1369100042290755</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -6870,19 +6870,19 @@
         <v>38795</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28907</v>
+        <v>29831</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49511</v>
+        <v>49698</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2007787641455546</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1496013161848788</v>
+        <v>0.1543845207099135</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.256235399099419</v>
+        <v>0.2572034719463844</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -6891,19 +6891,19 @@
         <v>64962</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52821</v>
+        <v>52596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81200</v>
+        <v>81709</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1390526593493601</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1130656530254486</v>
+        <v>0.112582011861586</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.173810877015689</v>
+        <v>0.1749002738447814</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>45450</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33943</v>
+        <v>33585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62385</v>
+        <v>60707</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1659045290333135</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1239006395797606</v>
+        <v>0.1225959659213109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2277219900347449</v>
+        <v>0.2215989570640846</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -6941,19 +6941,19 @@
         <v>52437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41880</v>
+        <v>42314</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63725</v>
+        <v>63897</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2713778320816017</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2167448825381625</v>
+        <v>0.2189870135519491</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3298007609059391</v>
+        <v>0.3306904327047998</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>112</v>
@@ -6962,19 +6962,19 @@
         <v>97886</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80619</v>
+        <v>81126</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>115617</v>
+        <v>115833</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2095284298961557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1725659662566248</v>
+        <v>0.1736532226127095</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2474803178120052</v>
+        <v>0.2479424447112918</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>80025</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65772</v>
+        <v>65222</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>97497</v>
+        <v>96763</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2921136023887147</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2400862365490564</v>
+        <v>0.2380788712402966</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3558931088970316</v>
+        <v>0.3532118733708102</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>60</v>
@@ -7012,19 +7012,19 @@
         <v>44759</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35160</v>
+        <v>34504</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56388</v>
+        <v>55293</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2316419105732209</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1819665430461082</v>
+        <v>0.1785679496479587</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2918265176785249</v>
+        <v>0.2861586152753884</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>139</v>
@@ -7033,19 +7033,19 @@
         <v>124784</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>106358</v>
+        <v>105844</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>145775</v>
+        <v>145358</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2671024288260578</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2276622126310176</v>
+        <v>0.2265623507034971</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3120359452125397</v>
+        <v>0.3111434480246579</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>122310</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105414</v>
+        <v>105523</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139778</v>
+        <v>139668</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4464661454176609</v>
+        <v>0.4464661454176608</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3847913092150764</v>
+        <v>0.3851878589542949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5102295954129261</v>
+        <v>0.5098294700964895</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -7083,19 +7083,19 @@
         <v>57233</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46202</v>
+        <v>46064</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70048</v>
+        <v>69278</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2962014931996227</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2391136688519493</v>
+        <v>0.2383986115209469</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3625207913822247</v>
+        <v>0.3585383267291424</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>196</v>
@@ -7104,19 +7104,19 @@
         <v>179543</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>157782</v>
+        <v>160454</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>199253</v>
+        <v>201687</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3843164819284263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3377367382335987</v>
+        <v>0.3434559160870265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4265066869803024</v>
+        <v>0.4317158216651649</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>45426</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31989</v>
+        <v>33970</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59817</v>
+        <v>61345</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1020245605052843</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07184519896641585</v>
+        <v>0.07629592908140885</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1343463336229417</v>
+        <v>0.1377797277729112</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -7229,19 +7229,19 @@
         <v>55123</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>45512</v>
+        <v>45275</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>66805</v>
+        <v>67716</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1832925460308881</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.151333296584546</v>
+        <v>0.1505469759705144</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2221369673791898</v>
+        <v>0.2251666756248114</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>126</v>
@@ -7250,19 +7250,19 @@
         <v>100549</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>85022</v>
+        <v>82035</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>121574</v>
+        <v>118373</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1347872890056739</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1139728094195913</v>
+        <v>0.1099689212091908</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1629718322946184</v>
+        <v>0.1586814502089547</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>121782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99723</v>
+        <v>100927</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144294</v>
+        <v>142854</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2735174394239379</v>
+        <v>0.273517439423938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2239741190360786</v>
+        <v>0.2266795769330229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3240797697575643</v>
+        <v>0.320845591726225</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>143</v>
@@ -7300,19 +7300,19 @@
         <v>106944</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91108</v>
+        <v>93274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121313</v>
+        <v>122519</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3556054681398091</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3029492559123494</v>
+        <v>0.3101488604782159</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4033828954368639</v>
+        <v>0.4073942909094264</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>247</v>
@@ -7321,19 +7321,19 @@
         <v>228726</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>204530</v>
+        <v>202632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>256991</v>
+        <v>257681</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.306610763696175</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2741765463144223</v>
+        <v>0.2716310150105173</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3445009582607951</v>
+        <v>0.3454255561447021</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>123189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>103556</v>
+        <v>105036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142688</v>
+        <v>146198</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2766773130418311</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2325836058821474</v>
+        <v>0.2359067618830696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3204718293654815</v>
+        <v>0.3283550236193883</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -7371,19 +7371,19 @@
         <v>76935</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>64110</v>
+        <v>63977</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91011</v>
+        <v>90569</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2558195753683951</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2131756466961642</v>
+        <v>0.2127338477436685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3026247220539351</v>
+        <v>0.3011565802802905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>229</v>
@@ -7392,19 +7392,19 @@
         <v>200123</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>178238</v>
+        <v>176446</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>223444</v>
+        <v>226575</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2682686341246966</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2389307661797033</v>
+        <v>0.2365287379586866</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2995309114764727</v>
+        <v>0.3037279018975553</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>154847</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>133148</v>
+        <v>134407</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>175547</v>
+        <v>175848</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3477806870289467</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2990451367107492</v>
+        <v>0.3018723892252871</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.394272724414674</v>
+        <v>0.3949482147767222</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>83</v>
@@ -7442,19 +7442,19 @@
         <v>61736</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50914</v>
+        <v>50165</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74644</v>
+        <v>75454</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2052824104609078</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1692980116023389</v>
+        <v>0.1668062386711571</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2482022749770588</v>
+        <v>0.2508972136652902</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>244</v>
@@ -7463,19 +7463,19 @@
         <v>216583</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>191245</v>
+        <v>193697</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>241437</v>
+        <v>242995</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2903333131734544</v>
+        <v>0.2903333131734545</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2563674684627126</v>
+        <v>0.2596537997249323</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3236498979894806</v>
+        <v>0.3257387343039592</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>82494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66912</v>
+        <v>67305</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101905</v>
+        <v>101187</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2014710175442838</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1634148188834716</v>
+        <v>0.164376706072289</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2488777954352667</v>
+        <v>0.2471240791756381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>94</v>
@@ -7588,19 +7588,19 @@
         <v>60731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50617</v>
+        <v>49554</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73102</v>
+        <v>72276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.227413398838901</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1895435223337634</v>
+        <v>0.185560228077768</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.273741295151689</v>
+        <v>0.2706460518152588</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>177</v>
@@ -7609,19 +7609,19 @@
         <v>143224</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>123641</v>
+        <v>125010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165453</v>
+        <v>164794</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2117116764433101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.182763797670253</v>
+        <v>0.1847877230741651</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2445698601901139</v>
+        <v>0.2435958404497155</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>125341</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>105065</v>
+        <v>107967</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>145434</v>
+        <v>147647</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3061152682710093</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2565947776948027</v>
+        <v>0.2636822736297234</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3551865721145731</v>
+        <v>0.3605920613691955</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>106</v>
@@ -7659,19 +7659,19 @@
         <v>71795</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>60504</v>
+        <v>60197</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>85251</v>
+        <v>85738</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.268845034559094</v>
+        <v>0.2688450345590938</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.226565322555093</v>
+        <v>0.225414399892506</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3192331241573106</v>
+        <v>0.3210583891889797</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>232</v>
@@ -7680,19 +7680,19 @@
         <v>197136</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>176734</v>
+        <v>172951</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>220894</v>
+        <v>219363</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2914029816001665</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2612442374054584</v>
+        <v>0.2556528224972217</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.326521238190623</v>
+        <v>0.3242586558360554</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>104001</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84290</v>
+        <v>85342</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123316</v>
+        <v>122849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2539973312272967</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2058578952943378</v>
+        <v>0.2084256777506715</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3011694166088763</v>
+        <v>0.3000295062411795</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -7730,19 +7730,19 @@
         <v>66786</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55503</v>
+        <v>55517</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81298</v>
+        <v>81453</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2500890043679925</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2078390764863033</v>
+        <v>0.2078909704559214</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.304430944604949</v>
+        <v>0.3050127537342656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>191</v>
@@ -7751,19 +7751,19 @@
         <v>170787</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>149880</v>
+        <v>149972</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>195603</v>
+        <v>196149</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2524545336800128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2215501599174818</v>
+        <v>0.2216856894502189</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2891369993777454</v>
+        <v>0.2899443035246135</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>97621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>80270</v>
+        <v>80618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116458</v>
+        <v>118548</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2384163829574103</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1960390745807803</v>
+        <v>0.1968883725110712</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2844194398390207</v>
+        <v>0.2895246907793647</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -7801,19 +7801,19 @@
         <v>67738</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>54699</v>
+        <v>55581</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81530</v>
+        <v>81510</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2536525622340127</v>
+        <v>0.2536525622340126</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2048282488326766</v>
+        <v>0.2081293285172694</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3053000655834854</v>
+        <v>0.3052252045059055</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>203</v>
@@ -7822,19 +7822,19 @@
         <v>165359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143088</v>
+        <v>143415</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>186863</v>
+        <v>187706</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2444308082765105</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2115096565422187</v>
+        <v>0.2119939492950925</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2762178598543247</v>
+        <v>0.2774636784795653</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>90878</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74747</v>
+        <v>74058</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>111164</v>
+        <v>108748</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.226359915645474</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1861805892869552</v>
+        <v>0.1844647211955028</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2768879993577149</v>
+        <v>0.2708722754723605</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -7947,19 +7947,19 @@
         <v>73343</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61010</v>
+        <v>62086</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>87547</v>
+        <v>86538</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2556894323171318</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2126934567599924</v>
+        <v>0.2164433266432509</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3052064128471159</v>
+        <v>0.3016894096942984</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>208</v>
@@ -7968,19 +7968,19 @@
         <v>164221</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>145723</v>
+        <v>144230</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187224</v>
+        <v>186134</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2385824719521051</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2117082803286504</v>
+        <v>0.2095394368604368</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2720011952182034</v>
+        <v>0.2704168968787954</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>108307</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90946</v>
+        <v>89926</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>129763</v>
+        <v>128334</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2697733299326441</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2265296573882952</v>
+        <v>0.2239882837084193</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3232150515163625</v>
+        <v>0.3196552514281992</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>127</v>
@@ -8018,19 +8018,19 @@
         <v>90631</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76963</v>
+        <v>76909</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106205</v>
+        <v>103777</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3159563779730374</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2683068100560149</v>
+        <v>0.2681184179099492</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3702525859965308</v>
+        <v>0.3617850297007218</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>234</v>
@@ -8039,19 +8039,19 @@
         <v>198938</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>176362</v>
+        <v>176279</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>223508</v>
+        <v>223750</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2890192967654705</v>
+        <v>0.2890192967654706</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2562205212944823</v>
+        <v>0.2560998730063666</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3247144973386098</v>
+        <v>0.3250666567250193</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>66644</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52282</v>
+        <v>52470</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>85528</v>
+        <v>84795</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1659969342033667</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.130223566128566</v>
+        <v>0.1306925110721144</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2130346769396092</v>
+        <v>0.2112077522966483</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>79</v>
@@ -8089,19 +8089,19 @@
         <v>63590</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>50895</v>
+        <v>52271</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>79058</v>
+        <v>77922</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2216876751580776</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1774305830060932</v>
+        <v>0.1822256479430759</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2756105004953607</v>
+        <v>0.2716526913088665</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>141</v>
@@ -8110,19 +8110,19 @@
         <v>130234</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>108396</v>
+        <v>110731</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>153139</v>
+        <v>153754</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1892050635666006</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1574787433470878</v>
+        <v>0.1608712798237394</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2224819786210071</v>
+        <v>0.2233753380969745</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>135646</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>114881</v>
+        <v>116636</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>157435</v>
+        <v>156585</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3378698202185152</v>
+        <v>0.3378698202185151</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2861484807792622</v>
+        <v>0.290517903638503</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3921407186987497</v>
+        <v>0.3900239489217924</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -8160,19 +8160,19 @@
         <v>59281</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47323</v>
+        <v>47563</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72960</v>
+        <v>72841</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2066665145517533</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1649771853446705</v>
+        <v>0.165814350087873</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.254351763062269</v>
+        <v>0.2539373127716325</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>223</v>
@@ -8181,19 +8181,19 @@
         <v>194928</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>171175</v>
+        <v>169270</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>218069</v>
+        <v>220572</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2831931677158237</v>
+        <v>0.2831931677158238</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2486848536704709</v>
+        <v>0.2459166821136208</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3168131209158356</v>
+        <v>0.320448771835945</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>244964</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>213755</v>
+        <v>218992</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>273282</v>
+        <v>276289</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1600940014739267</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1396975454113947</v>
+        <v>0.1431203638043835</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1786009148108515</v>
+        <v>0.1805662594300179</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>339</v>
@@ -8306,19 +8306,19 @@
         <v>227992</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>206396</v>
+        <v>204003</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>250559</v>
+        <v>252267</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2175795837470563</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1969693446991153</v>
+        <v>0.1946858493039007</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.239115716698258</v>
+        <v>0.2407452177755954</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>589</v>
@@ -8327,19 +8327,19 @@
         <v>472956</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>437776</v>
+        <v>437659</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>514186</v>
+        <v>512404</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1834597933244493</v>
+        <v>0.1834597933244492</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1698132699787371</v>
+        <v>0.1697678724842034</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1994526062933474</v>
+        <v>0.1987614588258085</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>400880</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>366767</v>
+        <v>362082</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>438165</v>
+        <v>438160</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2619913685081454</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2396971764843294</v>
+        <v>0.236634866374578</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2863585860737591</v>
+        <v>0.2863550593317445</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>447</v>
@@ -8377,19 +8377,19 @@
         <v>321806</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>298318</v>
+        <v>295246</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>348651</v>
+        <v>350763</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3071090957947697</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2846933988346953</v>
+        <v>0.281761335357835</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3327280483912023</v>
+        <v>0.3347430364411428</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>825</v>
@@ -8398,19 +8398,19 @@
         <v>722686</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>682254</v>
+        <v>674992</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>767025</v>
+        <v>770891</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2803300785439777</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2646463331155622</v>
+        <v>0.2618292440097458</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2975289937595355</v>
+        <v>0.2990287472349614</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>373859</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>336558</v>
+        <v>341011</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>408258</v>
+        <v>410320</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2443315391067167</v>
+        <v>0.2443315391067166</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.219954133458278</v>
+        <v>0.2228641684880371</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2668130867845367</v>
+        <v>0.2681604835346857</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>326</v>
@@ -8448,19 +8448,19 @@
         <v>252070</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>226861</v>
+        <v>226942</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>277426</v>
+        <v>279415</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2405573386612777</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2165001933754038</v>
+        <v>0.2165777041542662</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2647556777985737</v>
+        <v>0.2666534844377499</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>700</v>
@@ -8469,19 +8469,19 @@
         <v>625928</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>586768</v>
+        <v>578160</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>669292</v>
+        <v>668107</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2427974643261695</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.227607176788172</v>
+        <v>0.224268250437865</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2596184312295469</v>
+        <v>0.2591588073685818</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>510425</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>471277</v>
+        <v>474174</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>548554</v>
+        <v>549793</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3335830909112112</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3079983789986616</v>
+        <v>0.3098918195471607</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3585018657117392</v>
+        <v>0.3593119756851313</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>329</v>
@@ -8519,19 +8519,19 @@
         <v>245989</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>222087</v>
+        <v>220297</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>275093</v>
+        <v>270920</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2347539817968964</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2119436578493243</v>
+        <v>0.2102353964446598</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2625291555667556</v>
+        <v>0.2585471007986014</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>866</v>
@@ -8540,19 +8540,19 @@
         <v>756413</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>712357</v>
+        <v>711901</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>800870</v>
+        <v>802937</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2934126638054036</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2763233920052092</v>
+        <v>0.276146291359841</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3106576359573111</v>
+        <v>0.3114593544525088</v>
       </c>
     </row>
     <row r="28">
